--- a/DESIGN/Relacionamentos.xlsx
+++ b/DESIGN/Relacionamentos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>Constraint</t>
   </si>
@@ -138,30 +138,229 @@
     <t>AREACPK</t>
   </si>
   <si>
+    <t>AREACFK</t>
+  </si>
+  <si>
+    <t>CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>RESERVAPK</t>
+  </si>
+  <si>
+    <t>ID_AREA_COMUM</t>
+  </si>
+  <si>
+    <t>MORADOR_CPF</t>
+  </si>
+  <si>
+    <t>RCFK</t>
+  </si>
+  <si>
+    <t>RACFK</t>
+  </si>
+  <si>
+    <t>RMFK</t>
+  </si>
+  <si>
+    <t>DATA_RESERVA, 
+AREA_COMUM_ID_CONDOMINIO, 
+AREA_COMUM_ID_AREA_COMUM</t>
+  </si>
+  <si>
     <t>ID_AREA_COMUM,
-ID_CONDOMINIO</t>
-  </si>
-  <si>
-    <t>AREACFK</t>
-  </si>
-  <si>
-    <t>CONDOMINIO_ID_CONDOMINIO</t>
-  </si>
-  <si>
-    <t>DTRESERVAPK</t>
-  </si>
-  <si>
-    <t>DATA_RESERVA</t>
-  </si>
-  <si>
-    <t>RESERMORADORFK</t>
-  </si>
-  <si>
-    <t>MORADOR_CPF,
-MORADOR_RG</t>
-  </si>
-  <si>
-    <t>CPF, RG</t>
+CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>VISITAPK</t>
+  </si>
+  <si>
+    <t>DATA_VISITA</t>
+  </si>
+  <si>
+    <t>VISITAFK</t>
+  </si>
+  <si>
+    <t>IMOVELPK</t>
+  </si>
+  <si>
+    <t>AP_NUM,
+CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>IMCONDFK</t>
+  </si>
+  <si>
+    <t>IMPROPFK</t>
+  </si>
+  <si>
+    <t>PROPRIETARIO_CPF</t>
+  </si>
+  <si>
+    <t>FORNPK</t>
+  </si>
+  <si>
+    <t>ID_FORNECEDORES,
+CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>FORNCONDFK</t>
+  </si>
+  <si>
+    <t>FORNENDFK</t>
+  </si>
+  <si>
+    <t>ENDERECO_ID_ENDERECO</t>
+  </si>
+  <si>
+    <t>REGRALPK</t>
+  </si>
+  <si>
+    <t>ID_REGRAS_LOCACAO</t>
+  </si>
+  <si>
+    <t>RLACFK</t>
+  </si>
+  <si>
+    <t>AREA_COMUM_CONDOMINIO_ID_CONDOMIO,
+AREA_COMUM_ID_AREA_COMUM</t>
+  </si>
+  <si>
+    <t>DCPK</t>
+  </si>
+  <si>
+    <t>CONDOMINIO_ID_CONDOMINIO,
+TIPO_DESPESA_ID_TIPO_DESPESA,
+DATAVCTO</t>
+  </si>
+  <si>
+    <t>DCCFK</t>
+  </si>
+  <si>
+    <t>DCTDFK</t>
+  </si>
+  <si>
+    <t>TIPO_DESPESA_ID_TIPO_DESPESA</t>
+  </si>
+  <si>
+    <t>ID_TIPO_DESPESA</t>
+  </si>
+  <si>
+    <t>DIPK</t>
+  </si>
+  <si>
+    <t>DIIFK</t>
+  </si>
+  <si>
+    <t>DITDFK</t>
+  </si>
+  <si>
+    <t>IMOVEL_AP_NUM,
+TIPO_DESPESA_ID_TIPO_DESPESA
+DATA_VCTO,
+IMOVEL_CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>IMOVEL_AP_NUM,
+IMOVEL_CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>ORCPK</t>
+  </si>
+  <si>
+    <t>DATA_2</t>
+  </si>
+  <si>
+    <t>ORCDESPFK</t>
+  </si>
+  <si>
+    <t>DESPESAS_COND_DATAVCTO,
+DESPESAS_COND_TIPO_DESPESA_ID_TIPO_DESPESA,
+DESPESAS_COND_CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>DATAVCTO,
+TIPO_DESPESA_ID_TIPO_DESPESA,
+CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>ORCFORNFK</t>
+  </si>
+  <si>
+    <t>FORNECEDORES_CONDOMINIO_ID_CONDOMINIO,
+FORNECEDORES_ID_FORNECEDORES</t>
+  </si>
+  <si>
+    <t>CONDOMINIO_ID_CONDOMINIO,
+ID_FORNECEDORES</t>
+  </si>
+  <si>
+    <t>RGPK</t>
+  </si>
+  <si>
+    <t>ID_REGRA</t>
+  </si>
+  <si>
+    <t>REUPK</t>
+  </si>
+  <si>
+    <t>DATA_REUNICAO,
+CONDOMINIO_ID_CONDOMINIO</t>
+  </si>
+  <si>
+    <t>REUCONDFK</t>
+  </si>
+  <si>
+    <t>MORAPK</t>
+  </si>
+  <si>
+    <t>MORAFK</t>
+  </si>
+  <si>
+    <t>IMOVEL_CONDOMINIO_ID_CONDOMINIO,
+IMOVEL_AP_NUM</t>
+  </si>
+  <si>
+    <t>CONDOMINIO_ID_CONDOMINIO,
+AP_NUM</t>
+  </si>
+  <si>
+    <t>ATAPK</t>
+  </si>
+  <si>
+    <t>ID_ATA</t>
+  </si>
+  <si>
+    <t>SUGPK</t>
+  </si>
+  <si>
+    <t>DT_SUGESTAO</t>
+  </si>
+  <si>
+    <t>SUGMORFK</t>
+  </si>
+  <si>
+    <t>TDPK</t>
+  </si>
+  <si>
+    <t>DEPENPK</t>
+  </si>
+  <si>
+    <t>ID_DEPENDENTE</t>
+  </si>
+  <si>
+    <t>DEPMORFK</t>
+  </si>
+  <si>
+    <t>DEPPARFK</t>
+  </si>
+  <si>
+    <t>PARENTESCO_ID_PARENTESCO</t>
+  </si>
+  <si>
+    <t>ID_PARENTESCO</t>
+  </si>
+  <si>
+    <t>PARPK</t>
   </si>
 </sst>
 </file>
@@ -184,7 +383,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -240,10 +433,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,20 +739,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -656,14 +850,14 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -672,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -681,9 +875,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -691,13 +885,13 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -708,78 +902,634 @@
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,7 +1541,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C17 E2:E17</xm:sqref>
+          <xm:sqref>E2:E43 C2:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
